--- a/document/Api.xlsx
+++ b/document/Api.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>/blog/api/v1.0/login</t>
-  </si>
-  <si>
-    <t>Thực hiện login trên facebook hoặc google</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
   <si>
     <t>AddInfo</t>
@@ -130,19 +121,32 @@
 }]</t>
   </si>
   <si>
-    <t>Nếu account chưa tồn tại, thực hiện lưu kết quả và trả thông tin người dùng
-Nếu account đã tồn tại, thực hiện kiểm tra xem loại đăng nhập có trùng vs USER_TYPE không. 
-Nếu không, thông báo lại cho người dùng. 
-Nếu có, trả lại thông tin cho người dùng: token
-Mã token được sử dụng để kiểm tra thông tin người gửi mỗi lệnh.</t>
-  </si>
-  <si>
     <t>{
   "article": "&lt;Tên bài viết&gt;",
   "name": "&lt;Tên người thích&gt;",
   "emotion": "cảm xúc (like/unlike)"
 "token": &lt;mã token&gt;
 }</t>
+  </si>
+  <si>
+    <t>/google/login</t>
+  </si>
+  <si>
+    <t>/facebook/login</t>
+  </si>
+  <si>
+    <t>Thực hiện login trên google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện login trên facebook </t>
+  </si>
+  <si>
+    <t>Thực hiện login vào facebook
+Kết quả trả ra token nếu thành công hoặc lỗi nếu thất bại</t>
+  </si>
+  <si>
+    <t>Thực hiện login vào google
+Kết quả trả ra token nếu thành công hoặc lỗi nếu thất bại</t>
   </si>
 </sst>
 </file>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,116 +559,126 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -693,6 +707,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
